--- a/Config File.xlsx
+++ b/Config File.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B7A202-C004-46AF-BACD-C977F3BC2198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4470" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="5" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Key-Mapping" sheetId="9" r:id="rId8"/>
     <sheet name="Screen-Mapping" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
   <si>
     <t>Process</t>
   </si>
@@ -170,9 +171,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Main Menu-Fill, Sub Menu-Fill, LF10101-Fill, LF90803-Fill, LF90801-Fill, LF90802-Read, LF90801, LF90803</t>
-  </si>
-  <si>
     <t>Policy Number Assignment</t>
   </si>
   <si>
@@ -359,52 +357,88 @@
     <t>LF3</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Library Screen</t>
-  </si>
-  <si>
-    <t>Library Name</t>
-  </si>
-  <si>
-    <t>SUSEL01</t>
-  </si>
-  <si>
-    <t>Program Name</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Show Messages?</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ABCD1234</t>
-  </si>
-  <si>
-    <t>LCSUSER1</t>
-  </si>
-  <si>
-    <t>MR2HKUTL</t>
-  </si>
-  <si>
-    <t>LFINITST</t>
-  </si>
-  <si>
-    <t>LFMNUTST</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>Key Secondary</t>
+  </si>
+  <si>
+    <t>Main Menu-Fill, Sub Menu-Fill, LF10101-Fill, LF90803-Fill, LF90801-Fill, LF90802-Read</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,7 +803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D80332-0C2C-4037-92FE-2C6FF1CD22A4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -781,38 +815,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D017DD6C-471B-4963-A03D-811A774E662A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439F8B31-2DAA-4F0A-8FDA-17DE910A0D2B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -826,67 +841,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -895,11 +876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C8E3B6-8517-4B1F-B03B-67DB1335C188}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,10 +954,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="11">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11">
         <v>29</v>
-      </c>
-      <c r="E4" s="11">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,10 +971,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="11">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
         <v>38</v>
-      </c>
-      <c r="E5" s="11">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,10 +988,10 @@
         <v>45</v>
       </c>
       <c r="D6" s="11">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11">
         <v>38</v>
-      </c>
-      <c r="E6" s="11">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,10 +1005,10 @@
         <v>45</v>
       </c>
       <c r="D7" s="11">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
         <v>38</v>
-      </c>
-      <c r="E7" s="11">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,10 +1022,10 @@
         <v>45</v>
       </c>
       <c r="D8" s="11">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11">
         <v>38</v>
-      </c>
-      <c r="E8" s="11">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="11">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11">
         <v>38</v>
-      </c>
-      <c r="E9" s="11">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,14 +1056,41 @@
         <v>46</v>
       </c>
       <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
         <v>38</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,11 +1098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952CB142-5FFD-4346-AFE1-9883783F06B9}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6D425B-9469-469B-855B-6920CDFAC3B9}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,10 +1219,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>13</v>
@@ -1231,7 +1239,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1253,8 +1261,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
+      <c r="A3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -1361,7 +1369,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
@@ -1376,229 +1384,313 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D597C98-3BB3-4635-91B0-837F8D3949CA}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84B313C-0E98-4064-AC43-05CA5585FE14}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1622,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1630,7 +1722,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1638,7 +1730,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1646,7 +1738,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1654,7 +1746,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1662,7 +1754,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1670,7 +1762,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
